--- a/grupos/5BLCM - Estadisticos 20211.xlsx
+++ b/grupos/5BLCM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="150">
   <si>
     <t>Materia</t>
   </si>
@@ -185,19 +185,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
     <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Ángel Martínez Gerson Hermenegildo</t>
+  </si>
+  <si>
     <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Ángel Martínez Gerson Hermenegildo</t>
   </si>
   <si>
     <t>Ángel Martínez Noe Cristobal</t>
@@ -959,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -968,7 +968,7 @@
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -1013,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V4">
         <v>8</v>
@@ -1022,7 +1022,7 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y4">
         <v>10</v>
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1045,7 +1045,7 @@
         <v>-1</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -1090,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V5">
         <v>8</v>
@@ -1099,7 +1099,7 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -1122,7 +1122,7 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -1167,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V6">
         <v>8</v>
@@ -1176,7 +1176,7 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1199,7 +1199,7 @@
         <v>-1</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V7">
         <v>10</v>
@@ -1253,7 +1253,7 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -1267,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1276,7 +1276,7 @@
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V8">
         <v>8</v>
@@ -1330,7 +1330,7 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1353,7 +1353,7 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1398,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V9">
         <v>9</v>
@@ -1407,7 +1407,7 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y9">
         <v>9</v>
@@ -1421,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1430,7 +1430,7 @@
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1475,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V10">
         <v>8</v>
@@ -1484,7 +1484,7 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1498,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1507,7 +1507,7 @@
         <v>-1</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -1552,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V11">
         <v>8</v>
@@ -1561,7 +1561,7 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y11">
         <v>8</v>
@@ -1575,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         <v>6</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V12">
         <v>8</v>
@@ -1652,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1661,7 +1661,7 @@
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1706,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V13">
         <v>8</v>
@@ -1715,7 +1715,7 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1729,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1783,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V14">
         <v>8</v>
@@ -1806,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1815,7 +1815,7 @@
         <v>-1</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -1860,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V15">
         <v>8</v>
@@ -1869,7 +1869,7 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y15">
         <v>8</v>
@@ -1883,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -1892,7 +1892,7 @@
         <v>-1</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>9</v>
@@ -1937,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V16">
         <v>8</v>
@@ -1946,7 +1946,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y16">
         <v>9</v>
@@ -1960,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1969,7 +1969,7 @@
         <v>-1</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -2014,7 +2014,7 @@
         <v>10</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V17">
         <v>-1</v>
@@ -2023,7 +2023,7 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y17">
         <v>10</v>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -2091,7 +2091,7 @@
         <v>8</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V18">
         <v>8</v>
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -2168,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V19">
         <v>-1</v>
@@ -2191,7 +2191,7 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -2200,7 +2200,7 @@
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -2245,7 +2245,7 @@
         <v>8</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V20">
         <v>8</v>
@@ -2254,7 +2254,7 @@
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y20">
         <v>6</v>
@@ -2268,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -2322,7 +2322,7 @@
         <v>10</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V21">
         <v>8</v>
@@ -2331,7 +2331,7 @@
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y21">
         <v>8</v>
@@ -2345,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -2354,7 +2354,7 @@
         <v>-1</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -2399,7 +2399,7 @@
         <v>9</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V22">
         <v>7</v>
@@ -2408,7 +2408,7 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y22">
         <v>8</v>
@@ -2422,7 +2422,7 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -2476,7 +2476,7 @@
         <v>9</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V23">
         <v>8</v>
@@ -2499,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2508,7 +2508,7 @@
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -2553,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V24">
         <v>-1</v>
@@ -2562,7 +2562,7 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y24">
         <v>9</v>
@@ -2576,7 +2576,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -2585,7 +2585,7 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -2630,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V25">
         <v>8</v>
@@ -2639,7 +2639,7 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y25">
         <v>10</v>
@@ -2653,7 +2653,7 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -2662,7 +2662,7 @@
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -2707,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V26">
         <v>8</v>
@@ -2716,7 +2716,7 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y26">
         <v>10</v>
@@ -2730,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -2739,7 +2739,7 @@
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -2784,7 +2784,7 @@
         <v>10</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V27">
         <v>8</v>
@@ -2793,7 +2793,7 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y27">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -2861,7 +2861,7 @@
         <v>6</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V28">
         <v>7</v>
@@ -2884,7 +2884,7 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -2893,7 +2893,7 @@
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -2938,7 +2938,7 @@
         <v>8</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V29">
         <v>7</v>
@@ -2947,7 +2947,7 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y29">
         <v>10</v>
@@ -2961,7 +2961,7 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -2970,7 +2970,7 @@
         <v>-1</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -3015,7 +3015,7 @@
         <v>10</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V30">
         <v>8</v>
@@ -3024,7 +3024,7 @@
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y30">
         <v>10</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -3124,7 +3124,7 @@
         <v>-1</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -3169,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V32">
         <v>8</v>
@@ -3178,7 +3178,7 @@
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y32">
         <v>10</v>
@@ -3192,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -3201,7 +3201,7 @@
         <v>-1</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -3246,7 +3246,7 @@
         <v>9</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V33">
         <v>8</v>
@@ -3255,7 +3255,7 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y33">
         <v>10</v>
@@ -3269,7 +3269,7 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -3278,7 +3278,7 @@
         <v>-1</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -3323,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="U34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V34">
         <v>8</v>
@@ -3332,7 +3332,7 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y34">
         <v>10</v>
@@ -3346,7 +3346,7 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -3355,7 +3355,7 @@
         <v>-1</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -3400,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V35">
         <v>9</v>
@@ -3409,7 +3409,7 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y35">
         <v>10</v>
@@ -3423,7 +3423,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -3432,7 +3432,7 @@
         <v>-1</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -3477,7 +3477,7 @@
         <v>10</v>
       </c>
       <c r="U36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V36">
         <v>8</v>
@@ -3486,7 +3486,7 @@
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y36">
         <v>10</v>
@@ -3500,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -3509,7 +3509,7 @@
         <v>-1</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>8</v>
@@ -3554,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="U37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V37">
         <v>7</v>
@@ -3563,7 +3563,7 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y37">
         <v>8</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3663,27 +3663,30 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>79.41</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>9.699999999999999</v>
+      </c>
       <c r="I3">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3692,27 +3695,30 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
       <c r="I4">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3721,30 +3727,30 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G5">
+        <v>8.82</v>
+      </c>
+      <c r="H5">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>88.23999999999999</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>11.76</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3753,25 +3759,25 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>91.18000000000001</v>
+        <v>94.12</v>
       </c>
       <c r="G6">
-        <v>8.82</v>
+        <v>2.94</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3860,7 +3866,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3880,7 +3886,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3900,7 +3906,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3920,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3940,7 +3946,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3980,7 +3986,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4000,7 +4006,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4020,7 +4026,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4040,7 +4046,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4060,7 +4066,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4100,7 +4106,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4120,7 +4126,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4140,7 +4146,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4160,7 +4166,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4180,7 +4186,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4220,7 +4226,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4240,7 +4246,7 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4260,7 +4266,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4280,7 +4286,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4300,7 +4306,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4340,7 +4346,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4360,7 +4366,7 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4380,7 +4386,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4400,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4420,7 +4426,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4460,7 +4466,7 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4480,7 +4486,7 @@
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4500,7 +4506,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4520,7 +4526,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4540,7 +4546,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4580,7 +4586,7 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4600,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4620,7 +4626,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4640,7 +4646,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4660,7 +4666,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4700,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4720,7 +4726,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4740,7 +4746,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4760,7 +4766,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4780,7 +4786,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4820,7 +4826,7 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4840,7 +4846,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4860,7 +4866,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4880,7 +4886,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4900,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4940,7 +4946,7 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4960,7 +4966,7 @@
         <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4980,7 +4986,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5000,7 +5006,7 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5020,7 +5026,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5060,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5080,7 +5086,7 @@
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5100,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5120,7 +5126,7 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5140,7 +5146,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5180,7 +5186,7 @@
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5200,7 +5206,7 @@
         <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5220,7 +5226,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5240,7 +5246,7 @@
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5260,7 +5266,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5300,7 +5306,7 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5320,7 +5326,7 @@
         <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5340,7 +5346,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5360,7 +5366,7 @@
         <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5380,7 +5386,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5420,7 +5426,7 @@
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5440,7 +5446,7 @@
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5460,7 +5466,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5480,7 +5486,7 @@
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5500,7 +5506,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5540,7 +5546,7 @@
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5560,7 +5566,7 @@
         <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5580,7 +5586,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5600,7 +5606,7 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5620,7 +5626,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5660,7 +5666,7 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5680,7 +5686,7 @@
         <v>6</v>
       </c>
       <c r="F93" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5700,7 +5706,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5720,7 +5726,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5740,7 +5746,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5780,7 +5786,7 @@
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5800,7 +5806,7 @@
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5820,7 +5826,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5840,7 +5846,7 @@
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5860,7 +5866,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5900,7 +5906,7 @@
         <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5920,7 +5926,7 @@
         <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5940,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5960,7 +5966,7 @@
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5980,7 +5986,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6020,7 +6026,7 @@
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6040,7 +6046,7 @@
         <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6060,7 +6066,7 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6080,7 +6086,7 @@
         <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6100,7 +6106,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6140,7 +6146,7 @@
         <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6160,7 +6166,7 @@
         <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6180,7 +6186,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6200,7 +6206,7 @@
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6220,7 +6226,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6260,7 +6266,7 @@
         <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6280,7 +6286,7 @@
         <v>6</v>
       </c>
       <c r="F123" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6300,7 +6306,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6320,7 +6326,7 @@
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6340,7 +6346,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6380,7 +6386,7 @@
         <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6400,7 +6406,7 @@
         <v>6</v>
       </c>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6420,7 +6426,7 @@
         <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6440,7 +6446,7 @@
         <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6460,7 +6466,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6500,7 +6506,7 @@
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6520,7 +6526,7 @@
         <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6540,7 +6546,7 @@
         <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6560,7 +6566,7 @@
         <v>8</v>
       </c>
       <c r="F137" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6580,7 +6586,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6620,7 +6626,7 @@
         <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6640,7 +6646,7 @@
         <v>6</v>
       </c>
       <c r="F141" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6660,7 +6666,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6680,7 +6686,7 @@
         <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6700,7 +6706,7 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6740,7 +6746,7 @@
         <v>9</v>
       </c>
       <c r="F146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6760,7 +6766,7 @@
         <v>6</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6780,7 +6786,7 @@
         <v>7</v>
       </c>
       <c r="F148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6800,7 +6806,7 @@
         <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6820,7 +6826,7 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6860,7 +6866,7 @@
         <v>9</v>
       </c>
       <c r="F152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6880,7 +6886,7 @@
         <v>6</v>
       </c>
       <c r="F153" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6900,7 +6906,7 @@
         <v>7</v>
       </c>
       <c r="F154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6920,7 +6926,7 @@
         <v>8</v>
       </c>
       <c r="F155" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6940,7 +6946,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6980,7 +6986,7 @@
         <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7000,7 +7006,7 @@
         <v>6</v>
       </c>
       <c r="F159" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7020,7 +7026,7 @@
         <v>7</v>
       </c>
       <c r="F160" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7040,7 +7046,7 @@
         <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7060,7 +7066,7 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7100,7 +7106,7 @@
         <v>9</v>
       </c>
       <c r="F164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7120,7 +7126,7 @@
         <v>6</v>
       </c>
       <c r="F165" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7140,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="F166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7160,7 +7166,7 @@
         <v>8</v>
       </c>
       <c r="F167" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7180,7 +7186,7 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7220,7 +7226,7 @@
         <v>9</v>
       </c>
       <c r="F170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7240,7 +7246,7 @@
         <v>6</v>
       </c>
       <c r="F171" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7260,7 +7266,7 @@
         <v>7</v>
       </c>
       <c r="F172" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7280,7 +7286,7 @@
         <v>8</v>
       </c>
       <c r="F173" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7300,7 +7306,7 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7340,7 +7346,7 @@
         <v>9</v>
       </c>
       <c r="F176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7360,7 +7366,7 @@
         <v>6</v>
       </c>
       <c r="F177" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7380,7 +7386,7 @@
         <v>7</v>
       </c>
       <c r="F178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7400,7 +7406,7 @@
         <v>8</v>
       </c>
       <c r="F179" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7420,7 +7426,7 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7460,7 +7466,7 @@
         <v>9</v>
       </c>
       <c r="F182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7480,7 +7486,7 @@
         <v>6</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7500,7 +7506,7 @@
         <v>7</v>
       </c>
       <c r="F184" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7520,7 +7526,7 @@
         <v>8</v>
       </c>
       <c r="F185" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7540,7 +7546,7 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7580,7 +7586,7 @@
         <v>9</v>
       </c>
       <c r="F188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7600,7 +7606,7 @@
         <v>6</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7620,7 +7626,7 @@
         <v>7</v>
       </c>
       <c r="F190" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7640,7 +7646,7 @@
         <v>8</v>
       </c>
       <c r="F191" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7660,7 +7666,7 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7700,7 +7706,7 @@
         <v>9</v>
       </c>
       <c r="F194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7720,7 +7726,7 @@
         <v>6</v>
       </c>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7740,7 +7746,7 @@
         <v>7</v>
       </c>
       <c r="F196" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7760,7 +7766,7 @@
         <v>8</v>
       </c>
       <c r="F197" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7780,7 +7786,7 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7820,7 +7826,7 @@
         <v>9</v>
       </c>
       <c r="F200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -7840,7 +7846,7 @@
         <v>6</v>
       </c>
       <c r="F201" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -7860,7 +7866,7 @@
         <v>7</v>
       </c>
       <c r="F202" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -7880,7 +7886,7 @@
         <v>8</v>
       </c>
       <c r="F203" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -7900,7 +7906,7 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8542,7 +8548,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8575,6 +8581,765 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920189</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920190</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920211</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920215</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920212</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920214</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920216</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920218</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920220</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920439</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920219</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920221</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>18330051920351</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/5BLCM - Estadisticos 20211.xlsx
+++ b/grupos/5BLCM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="150">
   <si>
     <t>Materia</t>
   </si>
@@ -185,21 +185,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Jiménez Nieto Enrique</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Ángel Martínez Gerson Hermenegildo</t>
+  </si>
+  <si>
+    <t>Duran Amezcua María Angélica</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
-    <t>Jiménez Nieto Enrique</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Ángel Martínez Gerson Hermenegildo</t>
-  </si>
-  <si>
-    <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
     <t>Ángel Martínez Noe Cristobal</t>
   </si>
   <si>
@@ -224,229 +224,229 @@
     <t>HUERTA</t>
   </si>
   <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>TLEHUACTLE</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>KEVIN JETHZAEL</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>DANNA PAOLA</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>JANETH</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO</t>
+  </si>
+  <si>
+    <t>AMABLE</t>
+  </si>
+  <si>
+    <t>ALMEIDA</t>
+  </si>
+  <si>
+    <t>BALVIN</t>
+  </si>
+  <si>
+    <t>DEMUNER</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GROTH</t>
+  </si>
+  <si>
+    <t>HEREDIA</t>
+  </si>
+  <si>
     <t>JUAREZ</t>
   </si>
   <si>
-    <t>LEON</t>
-  </si>
-  <si>
     <t>LIMA</t>
   </si>
   <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>TLEHUACTLE</t>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MERINO</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROSSAINZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>VELEZ</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
   </si>
   <si>
     <t>MORO</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>MARINERO</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VALERDE</t>
   </si>
   <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>KEVIN JETHZAEL</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>BERMUDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>KAREN YESSENIA</t>
+  </si>
+  <si>
+    <t>CRYSTAL MICHELL</t>
+  </si>
+  <si>
+    <t>JAZMIN</t>
+  </si>
+  <si>
+    <t>ABDIEL ALFREDO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>LEYNER</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>GUADALUPE ABRIL</t>
+  </si>
+  <si>
+    <t>TANIA ARLETH</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
   </si>
   <si>
     <t>DENISSE</t>
   </si>
   <si>
-    <t>DANNA PAOLA</t>
-  </si>
-  <si>
     <t>GUILLERMO UBALDO</t>
   </si>
   <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>JANETH</t>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>ASAEL PAULINO</t>
+  </si>
+  <si>
+    <t>HEIDI YAMILET</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
   </si>
   <si>
     <t>JUDITH ESTEFANIA</t>
-  </si>
-  <si>
-    <t>JOSE GUILLERMO</t>
-  </si>
-  <si>
-    <t>AMABLE</t>
-  </si>
-  <si>
-    <t>ALMEIDA</t>
-  </si>
-  <si>
-    <t>BALVIN</t>
-  </si>
-  <si>
-    <t>DEMUNER</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GROTH</t>
-  </si>
-  <si>
-    <t>HEREDIA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MERINO</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROSSAINZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>VELEZ</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>VILLANUEVA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VALERDE</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>BERMUDEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>KAREN YESSENIA</t>
-  </si>
-  <si>
-    <t>CRYSTAL MICHELL</t>
-  </si>
-  <si>
-    <t>JAZMIN</t>
-  </si>
-  <si>
-    <t>ABDIEL ALFREDO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>LEYNER</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>GUADALUPE ABRIL</t>
-  </si>
-  <si>
-    <t>TANIA ARLETH</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>DIANA</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>ASAEL PAULINO</t>
-  </si>
-  <si>
-    <t>HEIDI YAMILET</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
   </si>
   <si>
     <t>MILKA</t>
@@ -1581,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -1635,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -2043,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -2097,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X18">
         <v>8</v>
@@ -2197,7 +2197,7 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -2251,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X20">
         <v>7</v>
@@ -2428,7 +2428,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>-1</v>
@@ -2482,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2813,7 +2813,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -2867,7 +2867,7 @@
         <v>7</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2890,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -2944,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X29">
         <v>7</v>
@@ -3044,7 +3044,7 @@
         <v>-1</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>-1</v>
@@ -3098,7 +3098,7 @@
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3634,30 +3634,30 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3666,30 +3666,30 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>82.34999999999999</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>17.65</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3698,30 +3698,30 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="G4">
+        <v>8.82</v>
+      </c>
+      <c r="H4">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>88.23999999999999</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>11.76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3730,30 +3730,30 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>91.18000000000001</v>
+        <v>94.12</v>
       </c>
       <c r="G5">
-        <v>8.82</v>
+        <v>2.94</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3765,22 +3765,22 @@
         <v>32</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>94.12</v>
       </c>
       <c r="G6">
-        <v>2.94</v>
+        <v>5.88</v>
       </c>
       <c r="H6">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3822,7 +3822,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3860,33 +3860,33 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920195</v>
+        <v>19330051920197</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -3894,19 +3894,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920197</v>
+        <v>19330051920200</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -3914,99 +3914,99 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920200</v>
+        <v>19330051920202</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920201</v>
+        <v>19330051920202</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920202</v>
+        <v>19330051920207</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920202</v>
+        <v>19330051920209</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920203</v>
+        <v>19330051920213</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -4014,221 +4014,81 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920207</v>
+        <v>19330051920217</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920207</v>
+        <v>19330051920217</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920209</v>
+        <v>19330051920217</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920213</v>
+        <v>19330051920217</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>19330051920213</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>19330051920214</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920217</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920217</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920217</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920217</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19330051920217</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4271,30 +4131,30 @@
         <v>19330051920217</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920195</v>
+        <v>19330051920202</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4302,67 +4162,67 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920202</v>
+        <v>19330051920195</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920207</v>
+        <v>19330051920197</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920213</v>
+        <v>19330051920200</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920197</v>
+        <v>19330051920207</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4370,16 +4230,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920200</v>
+        <v>19330051920209</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4387,16 +4247,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920201</v>
+        <v>19330051920213</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4404,64 +4264,64 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920203</v>
+        <v>19330051920186</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920209</v>
+        <v>19330051920185</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920214</v>
+        <v>19330051920187</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920186</v>
+        <v>19330051920189</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
         <v>128</v>
@@ -4472,13 +4332,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920185</v>
+        <v>19330051920190</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>129</v>
@@ -4489,13 +4349,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920187</v>
+        <v>19330051920192</v>
       </c>
       <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
         <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
       </c>
       <c r="D15" t="s">
         <v>130</v>
@@ -4506,13 +4366,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920189</v>
+        <v>19330051920194</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -4523,13 +4383,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920190</v>
+        <v>19330051920193</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
         <v>132</v>
@@ -4540,13 +4400,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920192</v>
+        <v>19330051920196</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
@@ -4557,13 +4417,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920194</v>
+        <v>19330051920198</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
         <v>134</v>
@@ -4574,16 +4434,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920193</v>
+        <v>19330051920199</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4591,16 +4451,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920196</v>
+        <v>19330051920201</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4608,16 +4468,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920198</v>
+        <v>19330051920203</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4625,16 +4485,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920199</v>
+        <v>19330051920204</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4642,13 +4502,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920204</v>
+        <v>19330051920206</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
         <v>138</v>
@@ -4659,13 +4519,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920206</v>
+        <v>19330051920211</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>139</v>
@@ -4676,13 +4536,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920211</v>
+        <v>19330051920215</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
         <v>140</v>
@@ -4693,10 +4553,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920215</v>
+        <v>19330051920212</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -4710,13 +4570,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920212</v>
+        <v>19330051920214</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>142</v>
@@ -4730,10 +4590,10 @@
         <v>19330051920216</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
         <v>143</v>
@@ -4747,10 +4607,10 @@
         <v>19330051920218</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
         <v>144</v>
@@ -4764,10 +4624,10 @@
         <v>19330051920220</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>145</v>
@@ -4781,10 +4641,10 @@
         <v>19330051920439</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
         <v>146</v>
@@ -4798,10 +4658,10 @@
         <v>19330051920219</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
         <v>147</v>
@@ -4815,10 +4675,10 @@
         <v>19330051920221</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
         <v>148</v>
@@ -4832,10 +4692,10 @@
         <v>18330051920351</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>149</v>
@@ -4851,7 +4711,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4886,19 +4746,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920201</v>
+        <v>19330051920195</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -4909,22 +4769,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920201</v>
+        <v>19330051920195</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -4935,19 +4795,19 @@
         <v>19330051920202</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -4958,19 +4818,19 @@
         <v>19330051920202</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -4978,19 +4838,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920213</v>
+        <v>19330051920197</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -5001,19 +4861,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920213</v>
+        <v>19330051920200</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -5024,45 +4884,45 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920197</v>
+        <v>19330051920201</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920200</v>
+        <v>19330051920209</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -5070,70 +4930,24 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920203</v>
+        <v>19330051920213</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920214</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12">
         <v>-1</v>
       </c>
     </row>
